--- a/data/trans_camb/P44_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P44_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-23,19</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-23,83</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-36,98</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,81</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,01</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-18,21</t>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,92</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 3,59</t>
+          <t>-20,74; -0,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 5,24</t>
+          <t>-21,16; -0,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-68,95; -12,42</t>
+          <t>-21,8; -2,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 16,08</t>
+          <t>-20,96; -0,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 9,53</t>
+          <t>-4,62; 2,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 10,82</t>
+          <t>-6,18; -0,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 6,82</t>
+          <t>-5,58; 0,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 0,99</t>
+          <t>-3,92; 3,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,68; -3,17</t>
+          <t>-10,2; -0,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,34; -1,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,57; -2,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; 0,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-55,36%</t>
+          <t>-77,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>-82,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-88,26%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>-80,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,1%</t>
+          <t>-20,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>-76,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,25%</t>
+          <t>-64,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,42%</t>
+          <t>-10,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-53,93%</t>
+          <t>-56,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-80,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-87,67%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-55,69%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-92,92; 41,53</t>
+          <t>-100,0; 6,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 44,47</t>
+          <t>-100,0; -2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -24,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 79,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,54; 55,12</t>
+          <t>-82,12; 144,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,1; 52,63</t>
+          <t>-100,0; 71,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,48; 29,67</t>
+          <t>-94,39; 86,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,14; 9,46</t>
+          <t>-73,26; 183,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,05; -5,35</t>
+          <t>-89,36; 2,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-97,12; -40,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -53,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-88,58; 14,07</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,5</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-20,01</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,31</t>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-7,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 17,89</t>
+          <t>-6,2; 4,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 17,87</t>
+          <t>-8,66; 0,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 6,93</t>
+          <t>-8,94; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 18,09</t>
+          <t>-10,82; -2,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 17,36</t>
+          <t>-4,81; 8,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 15,06</t>
+          <t>-7,7; 4,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 13,53</t>
+          <t>-7,67; 4,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 8,54</t>
+          <t>-13,88; -4,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 2,99</t>
+          <t>-4,14; 4,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 1,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 1,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-10,76; -4,56</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,9%</t>
+          <t>-71,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>-71,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,26%</t>
+          <t>-15,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>-14,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-27,58%</t>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-37,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-37,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 53,53</t>
+          <t>-79,79; 179,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 62,1</t>
+          <t>-100,0; 100,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,94; 25,47</t>
+          <t>-100,0; 109,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 69,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 66,73</t>
+          <t>-44,19; 186,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 66,35</t>
+          <t>-66,41; 103,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 43,32</t>
+          <t>-64,08; 108,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 27,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 11,99</t>
+          <t>-42,66; 91,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-70,95; 27,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-70,72; 25,37</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,13</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,69</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,17</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-7,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 33,45</t>
+          <t>-15,88; 8,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,19; 100,0</t>
+          <t>-25,27; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,27; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 29,3</t>
+          <t>-25,27; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 26,5</t>
+          <t>-11,03; 17,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,66; 15,66</t>
+          <t>-15,54; 14,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 25,09</t>
+          <t>-17,8; 9,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 45,6</t>
+          <t>-25,6; -2,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 23,43</t>
+          <t>-8,71; 9,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 5,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 2,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-16,15; -2,27</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1344,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>486,29%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,32 +1359,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-41,14%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>-28,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-26,7%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-48,59%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,72; 172,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,02; 190,57</t>
+          <t>-73,12; 727,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,64; 97,2</t>
+          <t>-100,0; 453,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 281,91</t>
+          <t>-100,0; 472,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 528,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,88; 234,58</t>
+          <t>-75,04; 299,29</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-90,5; 221,65</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 173,26</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 9,99</t>
+          <t>-10,41; 0,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 10,04</t>
+          <t>-12,35; -1,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -1,85</t>
+          <t>-13,26; -2,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 10,98</t>
+          <t>-12,92; -2,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 8,83</t>
+          <t>-3,21; 3,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 6,46</t>
+          <t>-5,5; 1,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 5,87</t>
+          <t>-5,36; 1,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 5,09</t>
+          <t>-7,41; -1,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,39; -0,13</t>
+          <t>-4,95; 1,26</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; -1,22</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; -1,59</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; -3,09</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-28,02%</t>
+          <t>-49,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,42%</t>
+          <t>-79,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-54,3%</t>
+          <t>-90,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-88,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>-31,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>-31,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>-72,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,26%</t>
+          <t>-19,62%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-54,43%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-60,14%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-80,45%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,95; 35,95</t>
+          <t>-84,41; 27,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,63; 40,63</t>
+          <t>-97,29; -31,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,6; 2,87</t>
+          <t>-100,0; -51,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 42,31</t>
+          <t>-100,0; -40,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 34,73</t>
+          <t>-39,36; 81,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 27,53</t>
+          <t>-64,26; 33,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 22,65</t>
+          <t>-64,64; 32,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 18,56</t>
+          <t>-89,0; -30,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,04; -0,46</t>
+          <t>-58,36; 26,75</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-78,34; -25,33</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-81,27; -31,62</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-92,16; -55,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
